--- a/课程信息整合.xlsx
+++ b/课程信息整合.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g4560\Desktop\港城莞CS资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CS047\Documents\GitHub\cityu-dg-cs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF7CEB6-0000-4CC6-932D-A3B44D6CA1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470EBB63-FC69-4910-BDE0-818822BF52DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0658A00C-824C-444D-9A82-7D79A9DB5087}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{0658A00C-824C-444D-9A82-7D79A9DB5087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024.09.02-12.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">	Prof. Gerhard Petrus HANCKE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,6 +736,10 @@
   </si>
   <si>
     <t>录音稿整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.02-2024.12.07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -946,46 +946,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1354,60 +1354,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9EB333-39B2-47C0-9473-5DDD430F4527}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="1" max="1" width="36.09765625" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="3" max="3" width="42.09765625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="19.84765625" customWidth="1"/>
+    <col min="7" max="7" width="15.84765625" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" customWidth="1"/>
     <col min="10" max="10" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="28.125" customWidth="1"/>
+    <col min="12" max="12" width="28.09765625" customWidth="1"/>
     <col min="13" max="13" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
@@ -1417,20 +1417,20 @@
         <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
         <v>64</v>
       </c>
-      <c r="N2" t="s">
-        <v>65</v>
-      </c>
       <c r="O2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1439,262 +1439,262 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>54</v>
+      <c r="D3" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="91.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+        <v>78</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="22"/>
+        <v>80</v>
+      </c>
+      <c r="I4" s="17"/>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="84.6" x14ac:dyDescent="0.5">
+      <c r="A5" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>54</v>
+      <c r="D5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:16" ht="70.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="22"/>
+        <v>76</v>
+      </c>
+      <c r="I6" s="17"/>
       <c r="J6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>25</v>
+    <row r="7" spans="1:16" ht="70.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="L7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:16" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="A8" s="23"/>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="84.6" x14ac:dyDescent="0.5">
+      <c r="A9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>55</v>
+      <c r="F9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="O9">
         <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="A10" s="23"/>
       <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -1703,141 +1703,133 @@
         <v>5</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>95</v>
+        <v>48</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="2"/>
       <c r="L11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" t="s">
         <v>62</v>
       </c>
-      <c r="M11" t="s">
-        <v>63</v>
-      </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="155.1" x14ac:dyDescent="0.5">
       <c r="A12" s="2"/>
       <c r="B12" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
       <c r="B17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B22" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>98</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B29" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F5:F6"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:A4"/>
@@ -1854,6 +1846,14 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1874,6 +1874,7 @@
     <hyperlink ref="F7" r:id="rId15" xr:uid="{2AA6C0E8-96F9-4A79-80F1-9CEB642BA5E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>